--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsudashinsuke/work/excel-git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{649CF2BA-17E5-C14C-8F94-1338B809CF9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490242CA-DB2D-2F49-993F-5F496B117617}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11440" yWindow="5460" windowWidth="28300" windowHeight="17440" xr2:uid="{C0697B7E-19EB-B346-9F1C-6CF6783BC425}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>tes</t>
     <phoneticPr fontId="1"/>
@@ -45,11 +45,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ghh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>adfsg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asdsa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dsa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -417,7 +421,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -431,18 +435,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3">
+        <v>1234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
